--- a/report/abbviecare_responses.xlsx
+++ b/report/abbviecare_responses.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="France" sheetId="2" r:id="rId2"/>
+    <sheet name="France" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -398,23 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -435,7 +420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.css</v>
+        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner-desktop.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -443,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.css</v>
+        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner_logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -451,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-header-publish.min.css</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -467,7 +452,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.js</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -475,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/external-link-popup/v2/external-link-popup/clientlibs.min.js</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.css</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -483,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.js</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-header-publish.min.css</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -491,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/button-link/v2/button-link/clientlibs.min.js</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Light.woff2</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -499,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Regular.woff2</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -507,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Regular.woff2</v>
+        <v>https://consent.trustarc.com/v2/notice/0ivu3f</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -515,7 +500,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Light.woff2</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.js</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -523,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.abbviecare.fr/libs/granite/csrf/token.json</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.js</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -531,7 +516,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://consent.trustarc.com/v2/notice/0ivu3f</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/button-link/v2/button-link/clientlibs.min.js</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -539,7 +524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-N9X6RXK</v>
+        <v>https://www.abbviecare.fr/libs/granite/csrf/token.json</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -547,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -555,7 +540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -563,7 +548,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/16:19:48.8270ivu3f_AbbVieID-logo.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -571,7 +556,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/external-link-popup/v2/external-link-popup/clientlibs.min.js</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -579,7 +564,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner-desktop.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -587,7 +572,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecare.fr%2F&amp;category=</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -595,39 +580,39 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://consent.trustarc.com/v2/asset/16:19:48.8270ivu3f_AbbVieID-logo.png</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.36788905069811184&amp;session=f404736e-955c-47df-a3cd-4f62ad4c128d&amp;userType=NEW</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecare.fr%2F&amp;category=</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6036464198713634&amp;session=f404736e-955c-47df-a3cd-4f62ad4c128d&amp;userType=NEW</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.1073978363369501&amp;session=274272d3-73e3-4460-bb09-0b323ba4d211&amp;userType=NEW</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B25">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.19237752854918422&amp;session=274272d3-73e3-4460-bb09-0b323ba4d211&amp;userType=NEW</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B26">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner_logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/jcr:content</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -635,7 +620,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/jcr:content</v>
+        <v>https://www.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/banner-content/column_control/par1-100col/image_extension/item_1.coreimg.png/1663712714254-banner_logo.png</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -649,25 +634,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://www.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/banner-content/column_control/par1-100col/image_extension/item_1.coreimg.png/1663712714254-banner_logo.png</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://www.abbviecare.fr/etc.clientlibs/settings/wcm/designs/abbvie-care-ous/favicon/resources/icon-192x192.png</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report/abbviecare_responses.xlsx
+++ b/report/abbviecare_responses.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -634,9 +634,233 @@
         <v>200</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.abbviecare.fr/</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner_logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.abbviecare.fr/content/dam/abbvie-care-ous/fr/design-assets/banner-desktop.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.abbviecare.fr/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Regular.woff2</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/assets/resources/fonts/NeueHaasUnicaPro-Light.woff2</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://consent.trustarc.com/v2/notice/0ivu3f</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/external-link-popup/v2/external-link-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/components/content/button-link/v2/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.abbviecare.fr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-care-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.abbviecare.fr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-care-ous/fr/fr/jcr:content</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://consent.trustarc.com/v2/asset/16:19:48.8270ivu3f_AbbVieID-logo.png</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.29232804318817207&amp;session=490ba2c3-7ae8-45bb-9aae-881f8918ea78&amp;userType=NEW</v>
+      </c>
+      <c r="B51">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0ivu3f&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8796923997695323&amp;session=490ba2c3-7ae8-45bb-9aae-881f8918ea78&amp;userType=NEW</v>
+      </c>
+      <c r="B52">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0ivu3f&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecare.fr%2F&amp;category=</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/banner-content/column_control/par1-100col/image_extension/item_1.coreimg.png/1663712714254-banner_logo.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.abbviecare.fr/content/abbvie-care-ous/fr/fr/jcr:content/body/banner/bg-image/item_1.coreimg.jpg/1663712702019-banner-desktop.jpg</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
   </ignoredErrors>
 </worksheet>
 </file>